--- a/Stats/Excel/My Leetcode Problems Solved.xlsx
+++ b/Stats/Excel/My Leetcode Problems Solved.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="703">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1449,6 +1449,45 @@
   </si>
   <si>
     <t xml:space="preserve">Verifying an Alien Dictionary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Graph Bipartite? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Schedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Interval </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply Strings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefix and Suffix Search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth Smallest Element in a Sorted Matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Negative Numbers in a Sorted Matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular Expression Matching </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard Matching </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container With Most Water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Missing Positive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Valid Parentheses </t>
   </si>
   <si>
     <t xml:space="preserve">Problem</t>
@@ -2373,10 +2412,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z451"/>
+  <dimension ref="A1:Z463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A441" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G450"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A441" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H462" activeCellId="0" sqref="H462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18251,18 +18290,174 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E451" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G451" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="E452" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G452" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G453" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="C454" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E454" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G454" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G455" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="C456" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E456" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G456" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E457" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G457" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C458" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E458" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G458" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E459" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G459" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C460" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E460" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G460" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G461" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="E462" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G462" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -18825,8 +19020,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G450"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18842,7 +19037,7 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11" t="s">
@@ -18857,7 +19052,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>29</v>
@@ -18868,7 +19063,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>29</v>
@@ -18879,7 +19074,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>7</v>
@@ -18890,7 +19085,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
@@ -18901,7 +19096,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>29</v>
@@ -18912,7 +19107,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>29</v>
@@ -18923,7 +19118,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>29</v>
@@ -18934,7 +19129,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>7</v>
@@ -18945,7 +19140,7 @@
         <v>74</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>7</v>
@@ -18956,7 +19151,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>29</v>
@@ -18967,7 +19162,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>7</v>
@@ -18978,7 +19173,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>29</v>
@@ -18989,7 +19184,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>7</v>
@@ -19000,7 +19195,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>7</v>
@@ -19011,7 +19206,7 @@
         <v>133</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>7</v>
@@ -19022,7 +19217,7 @@
         <v>140</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>29</v>
@@ -19033,7 +19228,7 @@
         <v>149</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>29</v>
@@ -19044,7 +19239,7 @@
         <v>150</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>7</v>
@@ -19055,7 +19250,7 @@
         <v>165</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>7</v>
@@ -19066,7 +19261,7 @@
         <v>174</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>29</v>
@@ -19077,7 +19272,7 @@
         <v>187</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>7</v>
@@ -19088,7 +19283,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>7</v>
@@ -19099,7 +19294,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>7</v>
@@ -19110,7 +19305,7 @@
         <v>214</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>29</v>
@@ -19121,7 +19316,7 @@
         <v>218</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>29</v>
@@ -19132,7 +19327,7 @@
         <v>224</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>29</v>
@@ -19143,7 +19338,7 @@
         <v>228</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>7</v>
@@ -19154,7 +19349,7 @@
         <v>273</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>29</v>
@@ -19165,7 +19360,7 @@
         <v>274</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>7</v>
@@ -19176,7 +19371,7 @@
         <v>275</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>7</v>
@@ -19187,7 +19382,7 @@
         <v>282</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>29</v>
@@ -19198,7 +19393,7 @@
         <v>284</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>7</v>
@@ -19209,7 +19404,7 @@
         <v>289</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>7</v>
@@ -19220,7 +19415,7 @@
         <v>300</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>7</v>
@@ -19231,7 +19426,7 @@
         <v>301</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>29</v>
@@ -19242,7 +19437,7 @@
         <v>309</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>7</v>
@@ -19253,7 +19448,7 @@
         <v>310</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>7</v>
@@ -19264,7 +19459,7 @@
         <v>312</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>29</v>
@@ -19275,7 +19470,7 @@
         <v>313</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>7</v>
@@ -19286,7 +19481,7 @@
         <v>315</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>29</v>
@@ -19297,7 +19492,7 @@
         <v>316</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>29</v>
@@ -19308,7 +19503,7 @@
         <v>318</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>7</v>
@@ -19319,7 +19514,7 @@
         <v>321</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>29</v>
@@ -19330,7 +19525,7 @@
         <v>324</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>7</v>
@@ -19341,7 +19536,7 @@
         <v>327</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>29</v>
@@ -19352,7 +19547,7 @@
         <v>329</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>29</v>
@@ -19363,7 +19558,7 @@
         <v>330</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>29</v>
@@ -19374,7 +19569,7 @@
         <v>331</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>7</v>
@@ -19385,7 +19580,7 @@
         <v>332</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>7</v>
@@ -19396,7 +19591,7 @@
         <v>334</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>7</v>
@@ -19407,7 +19602,7 @@
         <v>336</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>29</v>
@@ -19418,7 +19613,7 @@
         <v>341</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>7</v>
@@ -19429,7 +19624,7 @@
         <v>354</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>29</v>
@@ -19440,7 +19635,7 @@
         <v>357</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>7</v>
@@ -19451,7 +19646,7 @@
         <v>363</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>29</v>
@@ -19462,7 +19657,7 @@
         <v>365</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>7</v>
@@ -19473,7 +19668,7 @@
         <v>367</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>4</v>
@@ -19484,7 +19679,7 @@
         <v>368</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>7</v>
@@ -19495,7 +19690,7 @@
         <v>373</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>7</v>
@@ -19506,7 +19701,7 @@
         <v>375</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>7</v>
@@ -19517,7 +19712,7 @@
         <v>378</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>7</v>
@@ -19528,7 +19723,7 @@
         <v>381</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>29</v>
@@ -19539,7 +19734,7 @@
         <v>382</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>7</v>
@@ -19550,7 +19745,7 @@
         <v>385</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>7</v>
@@ -19561,7 +19756,7 @@
         <v>386</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>7</v>
@@ -19572,7 +19767,7 @@
         <v>388</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>7</v>
@@ -19583,7 +19778,7 @@
         <v>391</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>29</v>
@@ -19594,7 +19789,7 @@
         <v>393</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>7</v>
@@ -19605,7 +19800,7 @@
         <v>395</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>7</v>
@@ -19616,7 +19811,7 @@
         <v>398</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>7</v>
@@ -19627,7 +19822,7 @@
         <v>399</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>7</v>
@@ -19638,7 +19833,7 @@
         <v>400</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>7</v>
@@ -19649,7 +19844,7 @@
         <v>403</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>29</v>
@@ -19660,7 +19855,7 @@
         <v>406</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>7</v>
@@ -19671,7 +19866,7 @@
         <v>407</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>29</v>
@@ -19682,7 +19877,7 @@
         <v>410</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>29</v>
@@ -19693,7 +19888,7 @@
         <v>413</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>7</v>
@@ -19704,7 +19899,7 @@
         <v>417</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>7</v>
@@ -19715,7 +19910,7 @@
         <v>419</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>7</v>
@@ -19726,7 +19921,7 @@
         <v>421</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>7</v>
@@ -19737,7 +19932,7 @@
         <v>432</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>29</v>
@@ -19748,7 +19943,7 @@
         <v>433</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>7</v>
@@ -19759,7 +19954,7 @@
         <v>446</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>29</v>
@@ -19770,7 +19965,7 @@
         <v>452</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>7</v>
@@ -19781,7 +19976,7 @@
         <v>460</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>29</v>
@@ -19792,7 +19987,7 @@
         <v>463</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>4</v>
@@ -19803,7 +19998,7 @@
         <v>464</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>7</v>
@@ -19814,7 +20009,7 @@
         <v>475</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>4</v>
@@ -19825,7 +20020,7 @@
         <v>480</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>29</v>
@@ -19836,7 +20031,7 @@
         <v>481</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>7</v>
@@ -19847,7 +20042,7 @@
         <v>482</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>4</v>
@@ -19858,7 +20053,7 @@
         <v>483</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>29</v>
@@ -19869,7 +20064,7 @@
         <v>486</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>7</v>
@@ -19880,7 +20075,7 @@
         <v>488</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>29</v>
@@ -19891,7 +20086,7 @@
         <v>493</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>29</v>
@@ -19902,7 +20097,7 @@
         <v>494</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>7</v>
@@ -19913,7 +20108,7 @@
         <v>498</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>7</v>
@@ -19924,7 +20119,7 @@
         <v>503</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>7</v>
@@ -19935,7 +20130,7 @@
         <v>514</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>29</v>
@@ -19946,7 +20141,7 @@
         <v>522</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>7</v>
@@ -19957,7 +20152,7 @@
         <v>523</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>7</v>
@@ -19968,7 +20163,7 @@
         <v>524</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>7</v>
@@ -19979,7 +20174,7 @@
         <v>525</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>7</v>
@@ -19990,7 +20185,7 @@
         <v>526</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>7</v>
@@ -20001,7 +20196,7 @@
         <v>529</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>7</v>
@@ -20012,7 +20207,7 @@
         <v>539</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>7</v>
@@ -20023,7 +20218,7 @@
         <v>547</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>7</v>
@@ -20034,7 +20229,7 @@
         <v>552</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>29</v>
@@ -20045,7 +20240,7 @@
         <v>554</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>7</v>
@@ -20056,7 +20251,7 @@
         <v>556</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>7</v>
@@ -20067,7 +20262,7 @@
         <v>560</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>7</v>
@@ -20078,7 +20273,7 @@
         <v>564</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>29</v>
@@ -20089,7 +20284,7 @@
         <v>565</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>7</v>
@@ -20100,7 +20295,7 @@
         <v>567</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>7</v>
@@ -20111,7 +20306,7 @@
         <v>576</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>7</v>
@@ -20122,7 +20317,7 @@
         <v>583</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>7</v>
@@ -20133,7 +20328,7 @@
         <v>587</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>29</v>
@@ -20144,7 +20339,7 @@
         <v>591</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>29</v>
@@ -20155,7 +20350,7 @@
         <v>609</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>7</v>
@@ -20166,7 +20361,7 @@
         <v>632</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>29</v>
@@ -20177,7 +20372,7 @@
         <v>633</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>4</v>
@@ -20188,7 +20383,7 @@
         <v>638</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>7</v>
@@ -20199,7 +20394,7 @@
         <v>639</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>29</v>
@@ -20210,7 +20405,7 @@
         <v>640</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>7</v>
@@ -20221,7 +20416,7 @@
         <v>643</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>4</v>
@@ -20232,7 +20427,7 @@
         <v>648</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>7</v>
@@ -20243,7 +20438,7 @@
         <v>650</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>7</v>
@@ -20254,7 +20449,7 @@
         <v>652</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>7</v>
@@ -20265,7 +20460,7 @@
         <v>658</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>7</v>
@@ -20276,7 +20471,7 @@
         <v>659</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>7</v>
@@ -20287,7 +20482,7 @@
         <v>667</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>7</v>
@@ -20298,7 +20493,7 @@
         <v>670</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>7</v>
@@ -20309,7 +20504,7 @@
         <v>672</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>7</v>
@@ -20320,7 +20515,7 @@
         <v>673</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>7</v>
@@ -20331,7 +20526,7 @@
         <v>675</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>29</v>
@@ -20342,7 +20537,7 @@
         <v>676</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>7</v>
@@ -20353,7 +20548,7 @@
         <v>679</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>29</v>
@@ -20364,7 +20559,7 @@
         <v>684</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>7</v>
@@ -20375,7 +20570,7 @@
         <v>685</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>29</v>
@@ -20386,7 +20581,7 @@
         <v>689</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>29</v>
@@ -20397,7 +20592,7 @@
         <v>698</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>7</v>
@@ -20408,7 +20603,7 @@
         <v>699</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>29</v>
@@ -20419,7 +20614,7 @@
         <v>714</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>7</v>
@@ -20430,7 +20625,7 @@
         <v>719</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>29</v>
@@ -20441,7 +20636,7 @@
         <v>721</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>7</v>
@@ -20452,7 +20647,7 @@
         <v>722</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>7</v>
@@ -20463,7 +20658,7 @@
         <v>726</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>29</v>
@@ -20474,7 +20669,7 @@
         <v>729</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>7</v>
@@ -20485,7 +20680,7 @@
         <v>730</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>29</v>
@@ -20496,7 +20691,7 @@
         <v>731</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>7</v>
@@ -20507,7 +20702,7 @@
         <v>732</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>29</v>
@@ -20518,7 +20713,7 @@
         <v>735</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>7</v>
@@ -20529,7 +20724,7 @@
         <v>745</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>29</v>
@@ -20540,7 +20735,7 @@
         <v>749</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>29</v>
@@ -20551,7 +20746,7 @@
         <v>753</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>29</v>
@@ -20562,7 +20757,7 @@
         <v>756</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>7</v>
@@ -20573,7 +20768,7 @@
         <v>764</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>7</v>
@@ -20584,7 +20779,7 @@
         <v>765</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>29</v>
@@ -20595,7 +20790,7 @@
         <v>768</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>29</v>
@@ -20606,7 +20801,7 @@
         <v>769</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>7</v>
@@ -20617,7 +20812,7 @@
         <v>773</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>29</v>
@@ -20628,7 +20823,7 @@
         <v>777</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>7</v>
@@ -20639,7 +20834,7 @@
         <v>778</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>29</v>
@@ -20650,7 +20845,7 @@
         <v>779</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>7</v>
@@ -20661,7 +20856,7 @@
         <v>780</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>29</v>
@@ -20672,7 +20867,7 @@
         <v>782</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>29</v>
@@ -20683,7 +20878,7 @@
         <v>785</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>7</v>
@@ -20694,7 +20889,7 @@
         <v>787</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>7</v>
@@ -20705,7 +20900,7 @@
         <v>789</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>7</v>
@@ -20716,7 +20911,7 @@
         <v>790</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>7</v>
@@ -20727,7 +20922,7 @@
         <v>792</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>7</v>
@@ -20738,7 +20933,7 @@
         <v>801</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>7</v>
@@ -20749,7 +20944,7 @@
         <v>802</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>7</v>
@@ -20760,7 +20955,7 @@
         <v>803</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>29</v>
@@ -20771,7 +20966,7 @@
         <v>808</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>7</v>
@@ -20782,7 +20977,7 @@
         <v>809</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>7</v>
@@ -20807,8 +21002,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G450"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20900,7 +21095,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>29</v>
@@ -20933,7 +21128,7 @@
         <v>123</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>29</v>
@@ -20944,7 +21139,7 @@
         <v>174</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>29</v>
@@ -20955,7 +21150,7 @@
         <v>188</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>29</v>
@@ -20999,7 +21194,7 @@
         <v>309</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>7</v>
@@ -21010,7 +21205,7 @@
         <v>312</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>29</v>
@@ -21043,7 +21238,7 @@
         <v>375</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>7</v>
@@ -21087,7 +21282,7 @@
         <v>494</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>7</v>
@@ -21109,7 +21304,7 @@
         <v>546</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>7</v>
@@ -21120,7 +21315,7 @@
         <v>576</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>7</v>
@@ -21142,7 +21337,7 @@
         <v>650</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>7</v>
@@ -21153,7 +21348,7 @@
         <v>673</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>7</v>
@@ -21164,7 +21359,7 @@
         <v>688</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>7</v>
@@ -21175,7 +21370,7 @@
         <v>712</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>7</v>
@@ -21186,7 +21381,7 @@
         <v>714</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>7</v>
@@ -21208,7 +21403,7 @@
         <v>790</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>7</v>
@@ -21219,7 +21414,7 @@
         <v>801</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>7</v>
@@ -21230,7 +21425,7 @@
         <v>808</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>7</v>
@@ -21241,7 +21436,7 @@
         <v>871</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>29</v>
@@ -21263,7 +21458,7 @@
         <v>935</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>7</v>
@@ -21274,7 +21469,7 @@
         <v>983</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>7</v>
@@ -21285,7 +21480,7 @@
         <v>1000</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>7</v>
@@ -21296,7 +21491,7 @@
         <v>1039</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>7</v>
@@ -21307,7 +21502,7 @@
         <v>1049</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>7</v>
@@ -21318,7 +21513,7 @@
         <v>1092</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>7</v>
@@ -21329,7 +21524,7 @@
         <v>1130</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>7</v>
@@ -21340,7 +21535,7 @@
         <v>1143</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>7</v>
@@ -21351,7 +21546,7 @@
         <v>1155</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>7</v>
@@ -21362,7 +21557,7 @@
         <v>1220</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>29</v>
@@ -21373,7 +21568,7 @@
         <v>1223</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>7</v>
@@ -21384,7 +21579,7 @@
         <v>1240</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>29</v>
@@ -21395,7 +21590,7 @@
         <v>1269</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>29</v>
@@ -22374,8 +22569,8 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G450"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22386,7 +22581,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C1" s="13" t="n">
         <v>17</v>
@@ -22394,7 +22589,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="C2" s="13" t="n">
         <v>9</v>
@@ -22402,7 +22597,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>2</v>
@@ -22410,7 +22605,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>6</v>
@@ -22418,7 +22613,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>7</v>
@@ -22426,7 +22621,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>11</v>
@@ -22434,7 +22629,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>5</v>
@@ -22442,7 +22637,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>14</v>
@@ -22450,7 +22645,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="C9" s="13" t="n">
         <v>12</v>
@@ -22458,7 +22653,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="C10" s="13" t="n">
         <v>11</v>
@@ -22466,7 +22661,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C11" s="13" t="n">
         <v>12</v>
@@ -22474,7 +22669,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>9</v>
@@ -22482,7 +22677,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>4</v>
@@ -22490,7 +22685,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>10</v>
@@ -22498,7 +22693,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="C15" s="13" t="n">
         <v>13</v>
@@ -22506,7 +22701,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="C16" s="13" t="n">
         <v>11</v>
@@ -22514,7 +22709,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="C17" s="13" t="n">
         <v>9</v>
@@ -22522,7 +22717,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="C18" s="13" t="n">
         <v>15</v>

--- a/Stats/Excel/My Leetcode Problems Solved.xlsx
+++ b/Stats/Excel/My Leetcode Problems Solved.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="707">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1488,6 +1488,18 @@
   </si>
   <si>
     <t xml:space="preserve">Longest Valid Parentheses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Integers by The Number of 1 Bits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closest Divisors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Binary Tree Nodes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Days Between Two Dates </t>
   </si>
   <si>
     <t xml:space="preserve">Problem</t>
@@ -2412,10 +2424,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z463"/>
+  <dimension ref="A1:Z467"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A441" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H462" activeCellId="0" sqref="H462"/>
+      <selection pane="topLeft" activeCell="A467" activeCellId="0" sqref="A467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18458,10 +18470,62 @@
         <v>444</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G463" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="n">
+        <v>1362</v>
+      </c>
+      <c r="C464" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E464" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G464" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="n">
+        <v>1361</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G465" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C466" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E466" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G466" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19037,7 +19101,7 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11" t="s">
@@ -19052,7 +19116,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>29</v>
@@ -19063,7 +19127,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>29</v>
@@ -19074,7 +19138,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>7</v>
@@ -19085,7 +19149,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
@@ -19096,7 +19160,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>29</v>
@@ -19107,7 +19171,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>29</v>
@@ -19118,7 +19182,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>29</v>
@@ -19129,7 +19193,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>7</v>
@@ -19140,7 +19204,7 @@
         <v>74</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>7</v>
@@ -19151,7 +19215,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>29</v>
@@ -19162,7 +19226,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>7</v>
@@ -19173,7 +19237,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>29</v>
@@ -19184,7 +19248,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>7</v>
@@ -19195,7 +19259,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>7</v>
@@ -19206,7 +19270,7 @@
         <v>133</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>7</v>
@@ -19217,7 +19281,7 @@
         <v>140</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>29</v>
@@ -19228,7 +19292,7 @@
         <v>149</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>29</v>
@@ -19239,7 +19303,7 @@
         <v>150</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>7</v>
@@ -19250,7 +19314,7 @@
         <v>165</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>7</v>
@@ -19261,7 +19325,7 @@
         <v>174</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>29</v>
@@ -19272,7 +19336,7 @@
         <v>187</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>7</v>
@@ -19283,7 +19347,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>7</v>
@@ -19294,7 +19358,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>7</v>
@@ -19305,7 +19369,7 @@
         <v>214</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>29</v>
@@ -19316,7 +19380,7 @@
         <v>218</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>29</v>
@@ -19327,7 +19391,7 @@
         <v>224</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>29</v>
@@ -19338,7 +19402,7 @@
         <v>228</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>7</v>
@@ -19349,7 +19413,7 @@
         <v>273</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>29</v>
@@ -19360,7 +19424,7 @@
         <v>274</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>7</v>
@@ -19371,7 +19435,7 @@
         <v>275</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>7</v>
@@ -19382,7 +19446,7 @@
         <v>282</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>29</v>
@@ -19393,7 +19457,7 @@
         <v>284</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>7</v>
@@ -19404,7 +19468,7 @@
         <v>289</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>7</v>
@@ -19415,7 +19479,7 @@
         <v>300</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>7</v>
@@ -19426,7 +19490,7 @@
         <v>301</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>29</v>
@@ -19437,7 +19501,7 @@
         <v>309</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>7</v>
@@ -19448,7 +19512,7 @@
         <v>310</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>7</v>
@@ -19459,7 +19523,7 @@
         <v>312</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>29</v>
@@ -19470,7 +19534,7 @@
         <v>313</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>7</v>
@@ -19481,7 +19545,7 @@
         <v>315</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>29</v>
@@ -19492,7 +19556,7 @@
         <v>316</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>29</v>
@@ -19503,7 +19567,7 @@
         <v>318</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>7</v>
@@ -19514,7 +19578,7 @@
         <v>321</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>29</v>
@@ -19525,7 +19589,7 @@
         <v>324</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>7</v>
@@ -19536,7 +19600,7 @@
         <v>327</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>29</v>
@@ -19547,7 +19611,7 @@
         <v>329</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>29</v>
@@ -19558,7 +19622,7 @@
         <v>330</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>29</v>
@@ -19569,7 +19633,7 @@
         <v>331</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>7</v>
@@ -19580,7 +19644,7 @@
         <v>332</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>7</v>
@@ -19591,7 +19655,7 @@
         <v>334</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>7</v>
@@ -19602,7 +19666,7 @@
         <v>336</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>29</v>
@@ -19613,7 +19677,7 @@
         <v>341</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>7</v>
@@ -19624,7 +19688,7 @@
         <v>354</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>29</v>
@@ -19635,7 +19699,7 @@
         <v>357</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>7</v>
@@ -19646,7 +19710,7 @@
         <v>363</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>29</v>
@@ -19657,7 +19721,7 @@
         <v>365</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>7</v>
@@ -19668,7 +19732,7 @@
         <v>367</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>4</v>
@@ -19679,7 +19743,7 @@
         <v>368</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>7</v>
@@ -19690,7 +19754,7 @@
         <v>373</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>7</v>
@@ -19701,7 +19765,7 @@
         <v>375</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>7</v>
@@ -19712,7 +19776,7 @@
         <v>378</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>7</v>
@@ -19723,7 +19787,7 @@
         <v>381</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>29</v>
@@ -19734,7 +19798,7 @@
         <v>382</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>7</v>
@@ -19745,7 +19809,7 @@
         <v>385</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>7</v>
@@ -19756,7 +19820,7 @@
         <v>386</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>7</v>
@@ -19767,7 +19831,7 @@
         <v>388</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>7</v>
@@ -19778,7 +19842,7 @@
         <v>391</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>29</v>
@@ -19789,7 +19853,7 @@
         <v>393</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>7</v>
@@ -19800,7 +19864,7 @@
         <v>395</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>7</v>
@@ -19811,7 +19875,7 @@
         <v>398</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>7</v>
@@ -19822,7 +19886,7 @@
         <v>399</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>7</v>
@@ -19833,7 +19897,7 @@
         <v>400</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>7</v>
@@ -19844,7 +19908,7 @@
         <v>403</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>29</v>
@@ -19855,7 +19919,7 @@
         <v>406</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>7</v>
@@ -19866,7 +19930,7 @@
         <v>407</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>29</v>
@@ -19877,7 +19941,7 @@
         <v>410</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>29</v>
@@ -19888,7 +19952,7 @@
         <v>413</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>7</v>
@@ -19899,7 +19963,7 @@
         <v>417</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>7</v>
@@ -19910,7 +19974,7 @@
         <v>419</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>7</v>
@@ -19921,7 +19985,7 @@
         <v>421</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>7</v>
@@ -19932,7 +19996,7 @@
         <v>432</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>29</v>
@@ -19943,7 +20007,7 @@
         <v>433</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>7</v>
@@ -19954,7 +20018,7 @@
         <v>446</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>29</v>
@@ -19965,7 +20029,7 @@
         <v>452</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>7</v>
@@ -19976,7 +20040,7 @@
         <v>460</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>29</v>
@@ -19987,7 +20051,7 @@
         <v>463</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>4</v>
@@ -19998,7 +20062,7 @@
         <v>464</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>7</v>
@@ -20009,7 +20073,7 @@
         <v>475</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>4</v>
@@ -20020,7 +20084,7 @@
         <v>480</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>29</v>
@@ -20031,7 +20095,7 @@
         <v>481</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>7</v>
@@ -20042,7 +20106,7 @@
         <v>482</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>4</v>
@@ -20053,7 +20117,7 @@
         <v>483</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>29</v>
@@ -20064,7 +20128,7 @@
         <v>486</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>7</v>
@@ -20075,7 +20139,7 @@
         <v>488</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>29</v>
@@ -20086,7 +20150,7 @@
         <v>493</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>29</v>
@@ -20097,7 +20161,7 @@
         <v>494</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>7</v>
@@ -20108,7 +20172,7 @@
         <v>498</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>7</v>
@@ -20119,7 +20183,7 @@
         <v>503</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>7</v>
@@ -20130,7 +20194,7 @@
         <v>514</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>29</v>
@@ -20141,7 +20205,7 @@
         <v>522</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>7</v>
@@ -20152,7 +20216,7 @@
         <v>523</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>7</v>
@@ -20163,7 +20227,7 @@
         <v>524</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>7</v>
@@ -20174,7 +20238,7 @@
         <v>525</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>7</v>
@@ -20185,7 +20249,7 @@
         <v>526</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>7</v>
@@ -20196,7 +20260,7 @@
         <v>529</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>7</v>
@@ -20207,7 +20271,7 @@
         <v>539</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>7</v>
@@ -20218,7 +20282,7 @@
         <v>547</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>7</v>
@@ -20229,7 +20293,7 @@
         <v>552</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>29</v>
@@ -20240,7 +20304,7 @@
         <v>554</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>7</v>
@@ -20251,7 +20315,7 @@
         <v>556</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>7</v>
@@ -20262,7 +20326,7 @@
         <v>560</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>7</v>
@@ -20273,7 +20337,7 @@
         <v>564</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>29</v>
@@ -20284,7 +20348,7 @@
         <v>565</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>7</v>
@@ -20295,7 +20359,7 @@
         <v>567</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>7</v>
@@ -20306,7 +20370,7 @@
         <v>576</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>7</v>
@@ -20317,7 +20381,7 @@
         <v>583</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>7</v>
@@ -20328,7 +20392,7 @@
         <v>587</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>29</v>
@@ -20339,7 +20403,7 @@
         <v>591</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>29</v>
@@ -20350,7 +20414,7 @@
         <v>609</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>7</v>
@@ -20361,7 +20425,7 @@
         <v>632</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>29</v>
@@ -20372,7 +20436,7 @@
         <v>633</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>4</v>
@@ -20383,7 +20447,7 @@
         <v>638</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>7</v>
@@ -20394,7 +20458,7 @@
         <v>639</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>29</v>
@@ -20405,7 +20469,7 @@
         <v>640</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>7</v>
@@ -20416,7 +20480,7 @@
         <v>643</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>4</v>
@@ -20427,7 +20491,7 @@
         <v>648</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>7</v>
@@ -20438,7 +20502,7 @@
         <v>650</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>7</v>
@@ -20449,7 +20513,7 @@
         <v>652</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>7</v>
@@ -20460,7 +20524,7 @@
         <v>658</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>7</v>
@@ -20471,7 +20535,7 @@
         <v>659</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>7</v>
@@ -20482,7 +20546,7 @@
         <v>667</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>7</v>
@@ -20493,7 +20557,7 @@
         <v>670</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>7</v>
@@ -20504,7 +20568,7 @@
         <v>672</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>7</v>
@@ -20515,7 +20579,7 @@
         <v>673</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>7</v>
@@ -20526,7 +20590,7 @@
         <v>675</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>29</v>
@@ -20537,7 +20601,7 @@
         <v>676</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>7</v>
@@ -20548,7 +20612,7 @@
         <v>679</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>29</v>
@@ -20559,7 +20623,7 @@
         <v>684</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>7</v>
@@ -20570,7 +20634,7 @@
         <v>685</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>29</v>
@@ -20581,7 +20645,7 @@
         <v>689</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>29</v>
@@ -20592,7 +20656,7 @@
         <v>698</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>7</v>
@@ -20603,7 +20667,7 @@
         <v>699</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>29</v>
@@ -20614,7 +20678,7 @@
         <v>714</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>7</v>
@@ -20625,7 +20689,7 @@
         <v>719</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>29</v>
@@ -20636,7 +20700,7 @@
         <v>721</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>7</v>
@@ -20647,7 +20711,7 @@
         <v>722</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>7</v>
@@ -20658,7 +20722,7 @@
         <v>726</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>29</v>
@@ -20669,7 +20733,7 @@
         <v>729</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>7</v>
@@ -20680,7 +20744,7 @@
         <v>730</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>29</v>
@@ -20691,7 +20755,7 @@
         <v>731</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>7</v>
@@ -20702,7 +20766,7 @@
         <v>732</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>29</v>
@@ -20713,7 +20777,7 @@
         <v>735</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>7</v>
@@ -20724,7 +20788,7 @@
         <v>745</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>29</v>
@@ -20735,7 +20799,7 @@
         <v>749</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>29</v>
@@ -20746,7 +20810,7 @@
         <v>753</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>29</v>
@@ -20757,7 +20821,7 @@
         <v>756</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>7</v>
@@ -20768,7 +20832,7 @@
         <v>764</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>7</v>
@@ -20779,7 +20843,7 @@
         <v>765</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>29</v>
@@ -20790,7 +20854,7 @@
         <v>768</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>29</v>
@@ -20801,7 +20865,7 @@
         <v>769</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>7</v>
@@ -20812,7 +20876,7 @@
         <v>773</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>29</v>
@@ -20823,7 +20887,7 @@
         <v>777</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>7</v>
@@ -20834,7 +20898,7 @@
         <v>778</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>29</v>
@@ -20845,7 +20909,7 @@
         <v>779</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>7</v>
@@ -20856,7 +20920,7 @@
         <v>780</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>29</v>
@@ -20867,7 +20931,7 @@
         <v>782</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>29</v>
@@ -20878,7 +20942,7 @@
         <v>785</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>7</v>
@@ -20889,7 +20953,7 @@
         <v>787</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>7</v>
@@ -20900,7 +20964,7 @@
         <v>789</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>7</v>
@@ -20911,7 +20975,7 @@
         <v>790</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>7</v>
@@ -20922,7 +20986,7 @@
         <v>792</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>7</v>
@@ -20933,7 +20997,7 @@
         <v>801</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>7</v>
@@ -20944,7 +21008,7 @@
         <v>802</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>7</v>
@@ -20955,7 +21019,7 @@
         <v>803</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>29</v>
@@ -20966,7 +21030,7 @@
         <v>808</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>7</v>
@@ -20977,7 +21041,7 @@
         <v>809</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>7</v>
@@ -21095,7 +21159,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>29</v>
@@ -21128,7 +21192,7 @@
         <v>123</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>29</v>
@@ -21139,7 +21203,7 @@
         <v>174</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>29</v>
@@ -21150,7 +21214,7 @@
         <v>188</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>29</v>
@@ -21194,7 +21258,7 @@
         <v>309</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>7</v>
@@ -21205,7 +21269,7 @@
         <v>312</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>29</v>
@@ -21238,7 +21302,7 @@
         <v>375</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>7</v>
@@ -21282,7 +21346,7 @@
         <v>494</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>7</v>
@@ -21304,7 +21368,7 @@
         <v>546</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>7</v>
@@ -21315,7 +21379,7 @@
         <v>576</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>7</v>
@@ -21337,7 +21401,7 @@
         <v>650</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>7</v>
@@ -21348,7 +21412,7 @@
         <v>673</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>7</v>
@@ -21359,7 +21423,7 @@
         <v>688</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>7</v>
@@ -21370,7 +21434,7 @@
         <v>712</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>7</v>
@@ -21381,7 +21445,7 @@
         <v>714</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>7</v>
@@ -21403,7 +21467,7 @@
         <v>790</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>7</v>
@@ -21414,7 +21478,7 @@
         <v>801</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>7</v>
@@ -21425,7 +21489,7 @@
         <v>808</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>7</v>
@@ -21436,7 +21500,7 @@
         <v>871</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>29</v>
@@ -21458,7 +21522,7 @@
         <v>935</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>7</v>
@@ -21469,7 +21533,7 @@
         <v>983</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>7</v>
@@ -21480,7 +21544,7 @@
         <v>1000</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>7</v>
@@ -21491,7 +21555,7 @@
         <v>1039</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>7</v>
@@ -21502,7 +21566,7 @@
         <v>1049</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>7</v>
@@ -21513,7 +21577,7 @@
         <v>1092</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>7</v>
@@ -21524,7 +21588,7 @@
         <v>1130</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>7</v>
@@ -21535,7 +21599,7 @@
         <v>1143</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>7</v>
@@ -21546,7 +21610,7 @@
         <v>1155</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>7</v>
@@ -21557,7 +21621,7 @@
         <v>1220</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>29</v>
@@ -21568,7 +21632,7 @@
         <v>1223</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>7</v>
@@ -21579,7 +21643,7 @@
         <v>1240</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>29</v>
@@ -21590,7 +21654,7 @@
         <v>1269</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>29</v>
@@ -22581,7 +22645,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C1" s="13" t="n">
         <v>17</v>
@@ -22589,7 +22653,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C2" s="13" t="n">
         <v>9</v>
@@ -22597,7 +22661,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>2</v>
@@ -22605,7 +22669,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>6</v>
@@ -22613,7 +22677,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>7</v>
@@ -22621,7 +22685,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>11</v>
@@ -22629,7 +22693,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>5</v>
@@ -22637,7 +22701,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>14</v>
@@ -22645,7 +22709,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C9" s="13" t="n">
         <v>12</v>
@@ -22653,7 +22717,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C10" s="13" t="n">
         <v>11</v>
@@ -22661,7 +22725,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C11" s="13" t="n">
         <v>12</v>
@@ -22669,7 +22733,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>9</v>
@@ -22677,7 +22741,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>4</v>
@@ -22685,7 +22749,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>10</v>
@@ -22693,7 +22757,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C15" s="13" t="n">
         <v>13</v>
@@ -22701,7 +22765,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C16" s="13" t="n">
         <v>11</v>
@@ -22709,7 +22773,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C17" s="13" t="n">
         <v>9</v>
@@ -22717,7 +22781,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C18" s="13" t="n">
         <v>15</v>
